--- a/data/pca/factorExposure/factorExposure_2011-09-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02240649800329633</v>
+        <v>0.01799913644483662</v>
       </c>
       <c r="C2">
-        <v>0.002433288630556424</v>
+        <v>0.005011124396959167</v>
       </c>
       <c r="D2">
-        <v>-0.05302180561808644</v>
+        <v>-0.04022492471299193</v>
       </c>
       <c r="E2">
-        <v>0.06311785760592868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.009815037052319533</v>
+      </c>
+      <c r="F2">
+        <v>0.04291901246375051</v>
+      </c>
+      <c r="G2">
+        <v>-0.01802558132064844</v>
+      </c>
+      <c r="H2">
+        <v>-0.005583475495446902</v>
+      </c>
+      <c r="I2">
+        <v>-0.01806607775382595</v>
+      </c>
+      <c r="J2">
+        <v>0.05781769800238696</v>
+      </c>
+      <c r="K2">
+        <v>0.07125161874047908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08865714538823326</v>
+        <v>0.09878754623064878</v>
       </c>
       <c r="C4">
-        <v>-0.05081024825752831</v>
+        <v>0.05518628529229051</v>
       </c>
       <c r="D4">
-        <v>-0.05573612634288418</v>
+        <v>-0.02857783537057494</v>
       </c>
       <c r="E4">
-        <v>0.02285141999758775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05146842727259014</v>
+      </c>
+      <c r="F4">
+        <v>0.06010658981199703</v>
+      </c>
+      <c r="G4">
+        <v>0.03196782556977606</v>
+      </c>
+      <c r="H4">
+        <v>-0.003508973974160894</v>
+      </c>
+      <c r="I4">
+        <v>0.0924808778999844</v>
+      </c>
+      <c r="J4">
+        <v>-0.03441685068700406</v>
+      </c>
+      <c r="K4">
+        <v>-0.03845489284002675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1223838643643769</v>
+        <v>0.131844455958833</v>
       </c>
       <c r="C6">
-        <v>0.009118079993884675</v>
+        <v>0.004632480767447998</v>
       </c>
       <c r="D6">
-        <v>-0.03771573106257563</v>
+        <v>-0.05154684174548151</v>
       </c>
       <c r="E6">
-        <v>0.06367049950506851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0003186286969270402</v>
+      </c>
+      <c r="F6">
+        <v>0.03856018615576957</v>
+      </c>
+      <c r="G6">
+        <v>0.04556834377419781</v>
+      </c>
+      <c r="H6">
+        <v>0.1993962602215169</v>
+      </c>
+      <c r="I6">
+        <v>-0.001720346500373898</v>
+      </c>
+      <c r="J6">
+        <v>-0.4423432701757816</v>
+      </c>
+      <c r="K6">
+        <v>-0.06138828239402928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07115033982881032</v>
+        <v>0.07103246834544971</v>
       </c>
       <c r="C7">
-        <v>-0.01041067172322437</v>
+        <v>0.04664466132652748</v>
       </c>
       <c r="D7">
-        <v>-0.07266517101407666</v>
+        <v>-0.05818643309167402</v>
       </c>
       <c r="E7">
-        <v>0.0595371038512083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.02579275784187619</v>
+      </c>
+      <c r="F7">
+        <v>0.05347131853888507</v>
+      </c>
+      <c r="G7">
+        <v>-0.01033291445964879</v>
+      </c>
+      <c r="H7">
+        <v>-0.01432079352633277</v>
+      </c>
+      <c r="I7">
+        <v>0.03519490554728784</v>
+      </c>
+      <c r="J7">
+        <v>0.07018121194778876</v>
+      </c>
+      <c r="K7">
+        <v>-0.06040577408145461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04211299230595865</v>
+        <v>0.04318887801680243</v>
       </c>
       <c r="C8">
-        <v>-0.06317172956783886</v>
+        <v>0.03102171705625604</v>
       </c>
       <c r="D8">
-        <v>-0.003475779199729668</v>
+        <v>0.01956402251339957</v>
       </c>
       <c r="E8">
-        <v>0.05775030413855321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01994764646834037</v>
+      </c>
+      <c r="F8">
+        <v>0.07972214445881774</v>
+      </c>
+      <c r="G8">
+        <v>0.05200433649351485</v>
+      </c>
+      <c r="H8">
+        <v>0.0283284340383245</v>
+      </c>
+      <c r="I8">
+        <v>0.1126913582672422</v>
+      </c>
+      <c r="J8">
+        <v>-0.01512108141897768</v>
+      </c>
+      <c r="K8">
+        <v>-0.02417720134515543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07869680742256674</v>
+        <v>0.08629311111716881</v>
       </c>
       <c r="C9">
-        <v>-0.05628747509325292</v>
+        <v>0.05439358538432172</v>
       </c>
       <c r="D9">
-        <v>-0.05538990518984813</v>
+        <v>-0.02979647065642059</v>
       </c>
       <c r="E9">
-        <v>0.02276920687671066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.04163923570096243</v>
+      </c>
+      <c r="F9">
+        <v>0.05267761448007755</v>
+      </c>
+      <c r="G9">
+        <v>0.04888048420601691</v>
+      </c>
+      <c r="H9">
+        <v>-0.004076186759809358</v>
+      </c>
+      <c r="I9">
+        <v>0.09044409912463</v>
+      </c>
+      <c r="J9">
+        <v>-0.03198170978209409</v>
+      </c>
+      <c r="K9">
+        <v>-0.02721676248936874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.02437255962435421</v>
+        <v>0.06363072783537815</v>
       </c>
       <c r="C10">
-        <v>0.1673687926423227</v>
+        <v>-0.1989052677747498</v>
       </c>
       <c r="D10">
-        <v>0.03762302236433015</v>
+        <v>-0.008156202756439605</v>
       </c>
       <c r="E10">
-        <v>0.08276281310746987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.007491767849743185</v>
+      </c>
+      <c r="F10">
+        <v>0.06168270290754396</v>
+      </c>
+      <c r="G10">
+        <v>-0.03939601841857937</v>
+      </c>
+      <c r="H10">
+        <v>0.01798168795751312</v>
+      </c>
+      <c r="I10">
+        <v>-0.06415134421502676</v>
+      </c>
+      <c r="J10">
+        <v>0.01425180359241091</v>
+      </c>
+      <c r="K10">
+        <v>0.02346416844607359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.0746021332196488</v>
+        <v>0.07564337722844487</v>
       </c>
       <c r="C11">
-        <v>-0.04870370181412342</v>
+        <v>0.05579638057139284</v>
       </c>
       <c r="D11">
-        <v>-0.04520855540130134</v>
+        <v>-0.02814940179318101</v>
       </c>
       <c r="E11">
-        <v>0.03028136030385984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007789456191809612</v>
+      </c>
+      <c r="F11">
+        <v>0.03458428537289568</v>
+      </c>
+      <c r="G11">
+        <v>0.06615449853892358</v>
+      </c>
+      <c r="H11">
+        <v>-0.02075629684364291</v>
+      </c>
+      <c r="I11">
+        <v>0.07202990853064267</v>
+      </c>
+      <c r="J11">
+        <v>0.03871501090620161</v>
+      </c>
+      <c r="K11">
+        <v>0.04482754288007048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0759781381950696</v>
+        <v>0.07506960895510624</v>
       </c>
       <c r="C12">
-        <v>-0.0290909730479643</v>
+        <v>0.04354210382911868</v>
       </c>
       <c r="D12">
-        <v>-0.05406244504163671</v>
+        <v>-0.03100549583158882</v>
       </c>
       <c r="E12">
-        <v>0.02547567406789111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02253461279846147</v>
+      </c>
+      <c r="F12">
+        <v>0.02857718706054622</v>
+      </c>
+      <c r="G12">
+        <v>0.03979877388288325</v>
+      </c>
+      <c r="H12">
+        <v>0.007076626375095398</v>
+      </c>
+      <c r="I12">
+        <v>0.09066305048304339</v>
+      </c>
+      <c r="J12">
+        <v>0.04310272368664664</v>
+      </c>
+      <c r="K12">
+        <v>0.02380334355371896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.07706901823086744</v>
+        <v>0.06863101295301634</v>
       </c>
       <c r="C13">
-        <v>-0.03873251289352094</v>
+        <v>0.03703680569602107</v>
       </c>
       <c r="D13">
-        <v>-0.0347964615295822</v>
+        <v>0.004038728836643371</v>
       </c>
       <c r="E13">
-        <v>0.02405471043651419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03922720465423801</v>
+      </c>
+      <c r="F13">
+        <v>0.0350056201883969</v>
+      </c>
+      <c r="G13">
+        <v>0.02005154777076968</v>
+      </c>
+      <c r="H13">
+        <v>-0.01334328970148362</v>
+      </c>
+      <c r="I13">
+        <v>0.09519578623224152</v>
+      </c>
+      <c r="J13">
+        <v>0.03977959521838299</v>
+      </c>
+      <c r="K13">
+        <v>-0.07307027970936271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03389308260927524</v>
+        <v>0.04335410678306743</v>
       </c>
       <c r="C14">
-        <v>0.002783398898691326</v>
+        <v>0.008018497086087022</v>
       </c>
       <c r="D14">
-        <v>-0.02344731315668142</v>
+        <v>-0.02917313892257146</v>
       </c>
       <c r="E14">
-        <v>0.01163468576025972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02410194869950865</v>
+      </c>
+      <c r="F14">
+        <v>0.02424003398970909</v>
+      </c>
+      <c r="G14">
+        <v>0.04446044934099765</v>
+      </c>
+      <c r="H14">
+        <v>-0.05297421373435695</v>
+      </c>
+      <c r="I14">
+        <v>0.06979615814023425</v>
+      </c>
+      <c r="J14">
+        <v>-0.0374784398400877</v>
+      </c>
+      <c r="K14">
+        <v>-0.04466125950639474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05177609345258469</v>
+        <v>0.04336927021578279</v>
       </c>
       <c r="C15">
-        <v>-0.0200751361833489</v>
+        <v>0.01742976348304567</v>
       </c>
       <c r="D15">
-        <v>-0.01120706976304184</v>
+        <v>0.01140257867018212</v>
       </c>
       <c r="E15">
-        <v>0.001609865546764737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04299588362941997</v>
+      </c>
+      <c r="F15">
+        <v>0.009898154857000021</v>
+      </c>
+      <c r="G15">
+        <v>0.03045798195468441</v>
+      </c>
+      <c r="H15">
+        <v>-0.01247048556137422</v>
+      </c>
+      <c r="I15">
+        <v>0.03232865538827678</v>
+      </c>
+      <c r="J15">
+        <v>-0.0248218328752046</v>
+      </c>
+      <c r="K15">
+        <v>-0.07958136004595141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06467803741442225</v>
+        <v>0.07461097739743244</v>
       </c>
       <c r="C16">
-        <v>-0.04487499501756224</v>
+        <v>0.05450600250071962</v>
       </c>
       <c r="D16">
-        <v>-0.05366654120883067</v>
+        <v>-0.03598012158139577</v>
       </c>
       <c r="E16">
-        <v>0.02067969253947148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02686639714320039</v>
+      </c>
+      <c r="F16">
+        <v>0.03034804812340959</v>
+      </c>
+      <c r="G16">
+        <v>0.03771143210268127</v>
+      </c>
+      <c r="H16">
+        <v>-0.01210898131108127</v>
+      </c>
+      <c r="I16">
+        <v>0.0474377268910247</v>
+      </c>
+      <c r="J16">
+        <v>0.02802499011572887</v>
+      </c>
+      <c r="K16">
+        <v>0.017771243371383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06968302549728213</v>
+        <v>0.06314995573097482</v>
       </c>
       <c r="C20">
-        <v>-0.0444721018577989</v>
+        <v>0.0388942598326743</v>
       </c>
       <c r="D20">
-        <v>-0.0335389947854398</v>
+        <v>-0.01096975576037831</v>
       </c>
       <c r="E20">
-        <v>0.0204110459597721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008389565820982955</v>
+      </c>
+      <c r="F20">
+        <v>0.02939144095067251</v>
+      </c>
+      <c r="G20">
+        <v>0.03169334782414535</v>
+      </c>
+      <c r="H20">
+        <v>-0.02753087298696938</v>
+      </c>
+      <c r="I20">
+        <v>0.1166369185983133</v>
+      </c>
+      <c r="J20">
+        <v>0.01997007464883514</v>
+      </c>
+      <c r="K20">
+        <v>-0.01837735605791342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03965893527360548</v>
+        <v>0.03204956834399755</v>
       </c>
       <c r="C21">
-        <v>-0.0141373194222175</v>
+        <v>0.02016776389243006</v>
       </c>
       <c r="D21">
-        <v>0.006652985883411928</v>
+        <v>0.01626345364171191</v>
       </c>
       <c r="E21">
-        <v>0.01230929744658345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02662039981621082</v>
+      </c>
+      <c r="F21">
+        <v>0.005476889544315603</v>
+      </c>
+      <c r="G21">
+        <v>0.001471695280547368</v>
+      </c>
+      <c r="H21">
+        <v>0.06966010832286657</v>
+      </c>
+      <c r="I21">
+        <v>0.02352305326711265</v>
+      </c>
+      <c r="J21">
+        <v>-0.02186952137899506</v>
+      </c>
+      <c r="K21">
+        <v>-0.03714912973441192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1098658215916182</v>
+        <v>0.0912344890863408</v>
       </c>
       <c r="C22">
-        <v>-0.09662580137484192</v>
+        <v>0.06411736771056595</v>
       </c>
       <c r="D22">
-        <v>-0.02196597689886912</v>
+        <v>0.1916746079141871</v>
       </c>
       <c r="E22">
-        <v>0.007593086281536927</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.4875771421677279</v>
+      </c>
+      <c r="F22">
+        <v>0.1386990378356134</v>
+      </c>
+      <c r="G22">
+        <v>-0.3196722684373838</v>
+      </c>
+      <c r="H22">
+        <v>0.04212564960660187</v>
+      </c>
+      <c r="I22">
+        <v>-0.2324156787968105</v>
+      </c>
+      <c r="J22">
+        <v>0.02257100229175161</v>
+      </c>
+      <c r="K22">
+        <v>0.03665977695578723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1108071591418566</v>
+        <v>0.09217195011422831</v>
       </c>
       <c r="C23">
-        <v>-0.0963145069556796</v>
+        <v>0.06456693049458916</v>
       </c>
       <c r="D23">
-        <v>-0.02319954836028692</v>
+        <v>0.1912804167909155</v>
       </c>
       <c r="E23">
-        <v>0.008963176618129983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.4913649801692243</v>
+      </c>
+      <c r="F23">
+        <v>0.1412195018560191</v>
+      </c>
+      <c r="G23">
+        <v>-0.3143017714207147</v>
+      </c>
+      <c r="H23">
+        <v>0.04142602087039516</v>
+      </c>
+      <c r="I23">
+        <v>-0.2347480223010906</v>
+      </c>
+      <c r="J23">
+        <v>0.01701309942195766</v>
+      </c>
+      <c r="K23">
+        <v>0.03639390778643559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08597654640346244</v>
+        <v>0.08455481616279112</v>
       </c>
       <c r="C24">
-        <v>-0.04681784892348407</v>
+        <v>0.05404823521755293</v>
       </c>
       <c r="D24">
-        <v>-0.04663139682791854</v>
+        <v>-0.02324675052528636</v>
       </c>
       <c r="E24">
-        <v>0.03368340011687287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02438804092060245</v>
+      </c>
+      <c r="F24">
+        <v>0.03998967397007954</v>
+      </c>
+      <c r="G24">
+        <v>0.05581538335197238</v>
+      </c>
+      <c r="H24">
+        <v>0.005086863561488002</v>
+      </c>
+      <c r="I24">
+        <v>0.06244322866273414</v>
+      </c>
+      <c r="J24">
+        <v>0.01984492132159779</v>
+      </c>
+      <c r="K24">
+        <v>0.03016552125273302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08102279654416471</v>
+        <v>0.07793306758677997</v>
       </c>
       <c r="C25">
-        <v>-0.04264232118210107</v>
+        <v>0.04598237713025601</v>
       </c>
       <c r="D25">
-        <v>-0.05778267262921857</v>
+        <v>-0.03114454278199217</v>
       </c>
       <c r="E25">
-        <v>0.04242912933726079</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03274672053674301</v>
+      </c>
+      <c r="F25">
+        <v>0.03991349526021038</v>
+      </c>
+      <c r="G25">
+        <v>0.05546190311778616</v>
+      </c>
+      <c r="H25">
+        <v>-0.005750516112493468</v>
+      </c>
+      <c r="I25">
+        <v>0.08100902237150913</v>
+      </c>
+      <c r="J25">
+        <v>0.02178237704056526</v>
+      </c>
+      <c r="K25">
+        <v>0.03881872018072165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05170974423671835</v>
+        <v>0.04678378211181213</v>
       </c>
       <c r="C26">
-        <v>-0.02210232658994158</v>
+        <v>0.02347959467817478</v>
       </c>
       <c r="D26">
-        <v>-0.001844889580568634</v>
+        <v>0.02122723863724993</v>
       </c>
       <c r="E26">
-        <v>0.03747808163543092</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02182583507011023</v>
+      </c>
+      <c r="F26">
+        <v>0.02575208732333994</v>
+      </c>
+      <c r="G26">
+        <v>0.02510038687903471</v>
+      </c>
+      <c r="H26">
+        <v>-0.0257205712880724</v>
+      </c>
+      <c r="I26">
+        <v>0.01257170623515906</v>
+      </c>
+      <c r="J26">
+        <v>-0.008183618672997271</v>
+      </c>
+      <c r="K26">
+        <v>-0.1162385926999083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04714689554572644</v>
+        <v>0.07700923422481468</v>
       </c>
       <c r="C28">
-        <v>0.2777020978753413</v>
+        <v>-0.2942809265836657</v>
       </c>
       <c r="D28">
-        <v>0.07914906215225065</v>
+        <v>0.02651238382362611</v>
       </c>
       <c r="E28">
-        <v>0.08016374952359452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.001945704564056483</v>
+      </c>
+      <c r="F28">
+        <v>0.03899440922673357</v>
+      </c>
+      <c r="G28">
+        <v>0.0281737073456502</v>
+      </c>
+      <c r="H28">
+        <v>0.04607596794229794</v>
+      </c>
+      <c r="I28">
+        <v>-0.02748989145804839</v>
+      </c>
+      <c r="J28">
+        <v>0.01086674989479737</v>
+      </c>
+      <c r="K28">
+        <v>-0.07579253853229131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05573076000705782</v>
+        <v>0.05415265470649463</v>
       </c>
       <c r="C29">
-        <v>0.009114136598328689</v>
+        <v>0.006983639060100225</v>
       </c>
       <c r="D29">
-        <v>-0.03244110295500727</v>
+        <v>-0.02566784678106407</v>
       </c>
       <c r="E29">
-        <v>0.02275427915153777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0337534708222262</v>
+      </c>
+      <c r="F29">
+        <v>0.03600646470128425</v>
+      </c>
+      <c r="G29">
+        <v>0.03208294191418214</v>
+      </c>
+      <c r="H29">
+        <v>-0.06520266722276355</v>
+      </c>
+      <c r="I29">
+        <v>0.05029449631460835</v>
+      </c>
+      <c r="J29">
+        <v>-0.01368082906450983</v>
+      </c>
+      <c r="K29">
+        <v>-0.04460813316895255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1542213002353194</v>
+        <v>0.1343771433567694</v>
       </c>
       <c r="C30">
-        <v>-0.05979198895155273</v>
+        <v>0.05578467534543752</v>
       </c>
       <c r="D30">
-        <v>-0.08536668049657535</v>
+        <v>-0.02584551228831629</v>
       </c>
       <c r="E30">
-        <v>0.05435893798207132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08667104233043101</v>
+      </c>
+      <c r="F30">
+        <v>0.09151088855399014</v>
+      </c>
+      <c r="G30">
+        <v>0.05268055875959195</v>
+      </c>
+      <c r="H30">
+        <v>0.0783712882907968</v>
+      </c>
+      <c r="I30">
+        <v>0.3112473278792629</v>
+      </c>
+      <c r="J30">
+        <v>0.1112577696745489</v>
+      </c>
+      <c r="K30">
+        <v>-0.1572967951149441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05728012096972703</v>
+        <v>0.04799679352084858</v>
       </c>
       <c r="C31">
-        <v>-0.01317629021306416</v>
+        <v>0.03509659017236282</v>
       </c>
       <c r="D31">
-        <v>-0.02864064006342309</v>
+        <v>-0.01174958910372853</v>
       </c>
       <c r="E31">
-        <v>0.004439243657512497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02545027265561485</v>
+      </c>
+      <c r="F31">
+        <v>0.005074085352721826</v>
+      </c>
+      <c r="G31">
+        <v>0.009444474548900872</v>
+      </c>
+      <c r="H31">
+        <v>-0.05361814538897488</v>
+      </c>
+      <c r="I31">
+        <v>0.04170262803582823</v>
+      </c>
+      <c r="J31">
+        <v>-0.0244530153575703</v>
+      </c>
+      <c r="K31">
+        <v>-0.02577670113617192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04681123713042751</v>
+        <v>0.04907396207135802</v>
       </c>
       <c r="C32">
-        <v>-0.02117400329359701</v>
+        <v>0.002107832950754414</v>
       </c>
       <c r="D32">
-        <v>-0.01524747836275302</v>
+        <v>0.02097578941277695</v>
       </c>
       <c r="E32">
-        <v>0.005383401726345833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0801672008371891</v>
+      </c>
+      <c r="F32">
+        <v>0.0217571049144344</v>
+      </c>
+      <c r="G32">
+        <v>0.004928241440016706</v>
+      </c>
+      <c r="H32">
+        <v>-0.0002180971074448998</v>
+      </c>
+      <c r="I32">
+        <v>-0.01408752759664226</v>
+      </c>
+      <c r="J32">
+        <v>0.06424507210063857</v>
+      </c>
+      <c r="K32">
+        <v>-0.1067958641779569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1008828394740093</v>
+        <v>0.1018427745318841</v>
       </c>
       <c r="C33">
-        <v>-0.03328688403298631</v>
+        <v>0.04844828764019127</v>
       </c>
       <c r="D33">
-        <v>-0.0426700324910039</v>
+        <v>-0.01328927338628285</v>
       </c>
       <c r="E33">
-        <v>0.01115674462388589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03446411440717098</v>
+      </c>
+      <c r="F33">
+        <v>0.005574562706954354</v>
+      </c>
+      <c r="G33">
+        <v>0.0179400457045729</v>
+      </c>
+      <c r="H33">
+        <v>-0.02835577267810233</v>
+      </c>
+      <c r="I33">
+        <v>0.07919335551141495</v>
+      </c>
+      <c r="J33">
+        <v>-0.01044520892812874</v>
+      </c>
+      <c r="K33">
+        <v>-0.0260298962905579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06450313082323759</v>
+        <v>0.07010713808840259</v>
       </c>
       <c r="C34">
-        <v>-0.04931691729629651</v>
+        <v>0.0456388352523816</v>
       </c>
       <c r="D34">
-        <v>-0.03740490777592521</v>
+        <v>-0.01971823744047191</v>
       </c>
       <c r="E34">
-        <v>0.02272648524088187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01685580882331346</v>
+      </c>
+      <c r="F34">
+        <v>0.02897604288506627</v>
+      </c>
+      <c r="G34">
+        <v>0.03773288740819616</v>
+      </c>
+      <c r="H34">
+        <v>-0.02212183097054525</v>
+      </c>
+      <c r="I34">
+        <v>0.05278138284939606</v>
+      </c>
+      <c r="J34">
+        <v>0.002555673897453414</v>
+      </c>
+      <c r="K34">
+        <v>0.05121790277975338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04255456708115855</v>
+        <v>0.03762687005999934</v>
       </c>
       <c r="C35">
-        <v>-0.007148551334726415</v>
+        <v>0.01586292266347654</v>
       </c>
       <c r="D35">
-        <v>-0.02106439827534948</v>
+        <v>-0.0142171762410372</v>
       </c>
       <c r="E35">
-        <v>-0.005031240329978082</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01957303109164762</v>
+      </c>
+      <c r="F35">
+        <v>-0.006823605524568988</v>
+      </c>
+      <c r="G35">
+        <v>0.01216700259729949</v>
+      </c>
+      <c r="H35">
+        <v>-0.02397505013976466</v>
+      </c>
+      <c r="I35">
+        <v>0.0526442992731332</v>
+      </c>
+      <c r="J35">
+        <v>0.00984489359500728</v>
+      </c>
+      <c r="K35">
+        <v>0.0005029414632298391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03696933958756728</v>
+        <v>0.03310193912384812</v>
       </c>
       <c r="C36">
-        <v>-0.02024040341407973</v>
+        <v>0.01627552765647049</v>
       </c>
       <c r="D36">
-        <v>-0.01477912675280132</v>
+        <v>0.004488031911719024</v>
       </c>
       <c r="E36">
-        <v>0.02926330227426567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02713351939156808</v>
+      </c>
+      <c r="F36">
+        <v>0.03711716187900416</v>
+      </c>
+      <c r="G36">
+        <v>0.02526175153350412</v>
+      </c>
+      <c r="H36">
+        <v>-0.01618400733941193</v>
+      </c>
+      <c r="I36">
+        <v>0.06479859816608075</v>
+      </c>
+      <c r="J36">
+        <v>-0.000833167491290099</v>
+      </c>
+      <c r="K36">
+        <v>-0.03587073971771682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06579934160922944</v>
+        <v>0.05701238425820424</v>
       </c>
       <c r="C38">
-        <v>-0.005213135118874897</v>
+        <v>0.026513493064764</v>
       </c>
       <c r="D38">
-        <v>0.01216798496227557</v>
+        <v>0.02292940822690987</v>
       </c>
       <c r="E38">
-        <v>-0.01472920791398523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009611697748670772</v>
+      </c>
+      <c r="F38">
+        <v>0.002793411348377252</v>
+      </c>
+      <c r="G38">
+        <v>-0.004711816272221615</v>
+      </c>
+      <c r="H38">
+        <v>-0.02237527575916928</v>
+      </c>
+      <c r="I38">
+        <v>-0.01961345556615253</v>
+      </c>
+      <c r="J38">
+        <v>0.03224777629662835</v>
+      </c>
+      <c r="K38">
+        <v>-0.04413866122446913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.095234676441845</v>
+        <v>0.09917372740461847</v>
       </c>
       <c r="C39">
-        <v>-0.02796499543512545</v>
+        <v>0.04472647443823229</v>
       </c>
       <c r="D39">
-        <v>-0.05371025856284588</v>
+        <v>-0.03466304133113094</v>
       </c>
       <c r="E39">
-        <v>0.0026817858814153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.03281975255737907</v>
+      </c>
+      <c r="F39">
+        <v>0.02959902333283393</v>
+      </c>
+      <c r="G39">
+        <v>0.04246557967483874</v>
+      </c>
+      <c r="H39">
+        <v>2.420115641726063e-05</v>
+      </c>
+      <c r="I39">
+        <v>0.07100711406880775</v>
+      </c>
+      <c r="J39">
+        <v>0.1345078289000752</v>
+      </c>
+      <c r="K39">
+        <v>0.03084297169195943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07459642170703719</v>
+        <v>0.05174987052047383</v>
       </c>
       <c r="C40">
-        <v>-0.01514509532710135</v>
+        <v>0.04102105073006493</v>
       </c>
       <c r="D40">
-        <v>-0.02870208340564844</v>
+        <v>0.02360007288165292</v>
       </c>
       <c r="E40">
-        <v>0.01407233034916122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.06389881548894906</v>
+      </c>
+      <c r="F40">
+        <v>0.0118301036036793</v>
+      </c>
+      <c r="G40">
+        <v>0.04662296745708696</v>
+      </c>
+      <c r="H40">
+        <v>0.0809465134482267</v>
+      </c>
+      <c r="I40">
+        <v>0.1651794514379605</v>
+      </c>
+      <c r="J40">
+        <v>0.249751265608861</v>
+      </c>
+      <c r="K40">
+        <v>0.03652329951692736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.0603812486403664</v>
+        <v>0.0489689517105952</v>
       </c>
       <c r="C41">
-        <v>-0.02812249717452031</v>
+        <v>0.03675273687957065</v>
       </c>
       <c r="D41">
-        <v>-0.008240466545525005</v>
+        <v>0.001899995602964699</v>
       </c>
       <c r="E41">
-        <v>-0.008738791515740306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01406955715987587</v>
+      </c>
+      <c r="F41">
+        <v>-0.008171113809550308</v>
+      </c>
+      <c r="G41">
+        <v>0.02476685721379411</v>
+      </c>
+      <c r="H41">
+        <v>-0.03660194684189593</v>
+      </c>
+      <c r="I41">
+        <v>0.02859309936614481</v>
+      </c>
+      <c r="J41">
+        <v>0.04055144457157436</v>
+      </c>
+      <c r="K41">
+        <v>-0.02536122848829394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06017582845342472</v>
+        <v>0.06117873089218986</v>
       </c>
       <c r="C43">
-        <v>-0.007822245736396822</v>
+        <v>0.0318594680146574</v>
       </c>
       <c r="D43">
-        <v>-0.02347928621412958</v>
+        <v>-0.01601578498994947</v>
       </c>
       <c r="E43">
-        <v>0.01422437093033524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01180496083987054</v>
+      </c>
+      <c r="F43">
+        <v>0.01950561803797613</v>
+      </c>
+      <c r="G43">
+        <v>-0.001610191304486806</v>
+      </c>
+      <c r="H43">
+        <v>-0.05275704259587573</v>
+      </c>
+      <c r="I43">
+        <v>0.01954263631266379</v>
+      </c>
+      <c r="J43">
+        <v>0.01506793324546049</v>
+      </c>
+      <c r="K43">
+        <v>-0.005861137035741202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.0938090038051808</v>
+        <v>0.09491340108337902</v>
       </c>
       <c r="C44">
-        <v>-0.05190355623225335</v>
+        <v>0.05449693734220452</v>
       </c>
       <c r="D44">
-        <v>-0.03808832816443068</v>
+        <v>0.003720520023769021</v>
       </c>
       <c r="E44">
-        <v>0.07764639921576443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07246408033896042</v>
+      </c>
+      <c r="F44">
+        <v>0.1241922779990676</v>
+      </c>
+      <c r="G44">
+        <v>0.07336240062486982</v>
+      </c>
+      <c r="H44">
+        <v>-0.02716576396561651</v>
+      </c>
+      <c r="I44">
+        <v>0.1231451262506187</v>
+      </c>
+      <c r="J44">
+        <v>0.06957193367485957</v>
+      </c>
+      <c r="K44">
+        <v>0.02677087280547157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0348940294936666</v>
+        <v>0.04634199181368991</v>
       </c>
       <c r="C46">
-        <v>-0.02374561716199224</v>
+        <v>0.02985894189040967</v>
       </c>
       <c r="D46">
-        <v>-0.02285215869506578</v>
+        <v>-0.01565815979095275</v>
       </c>
       <c r="E46">
-        <v>0.01714618424805872</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.03298569410191714</v>
+      </c>
+      <c r="F46">
+        <v>0.03257808430287</v>
+      </c>
+      <c r="G46">
+        <v>0.005446064147804553</v>
+      </c>
+      <c r="H46">
+        <v>-0.01243127917426242</v>
+      </c>
+      <c r="I46">
+        <v>0.0242460496558898</v>
+      </c>
+      <c r="J46">
+        <v>-0.02731105305428561</v>
+      </c>
+      <c r="K46">
+        <v>-0.03578420561478298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03913249485100561</v>
+        <v>0.04787793765092013</v>
       </c>
       <c r="C47">
-        <v>0.01008656358111229</v>
+        <v>0.003983845442110471</v>
       </c>
       <c r="D47">
-        <v>-0.007208507815588304</v>
+        <v>-0.002282824724951132</v>
       </c>
       <c r="E47">
-        <v>0.01607697424021307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.03970658042392046</v>
+      </c>
+      <c r="F47">
+        <v>0.009419281307235201</v>
+      </c>
+      <c r="G47">
+        <v>-0.01676384430127188</v>
+      </c>
+      <c r="H47">
+        <v>-0.01850180582532735</v>
+      </c>
+      <c r="I47">
+        <v>0.03405649196779441</v>
+      </c>
+      <c r="J47">
+        <v>-0.03494575155082952</v>
+      </c>
+      <c r="K47">
+        <v>0.007490814383714418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04893874301819664</v>
+        <v>0.04443222886352573</v>
       </c>
       <c r="C48">
-        <v>-0.02307562035434527</v>
+        <v>0.01764651936443153</v>
       </c>
       <c r="D48">
-        <v>-0.02986443071735097</v>
+        <v>0.006675239058946641</v>
       </c>
       <c r="E48">
-        <v>0.02600170539180168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04895558773488437</v>
+      </c>
+      <c r="F48">
+        <v>0.01736857596740828</v>
+      </c>
+      <c r="G48">
+        <v>0.01316299563969773</v>
+      </c>
+      <c r="H48">
+        <v>0.001388982900308551</v>
+      </c>
+      <c r="I48">
+        <v>0.05058003897250204</v>
+      </c>
+      <c r="J48">
+        <v>-0.004539628788417478</v>
+      </c>
+      <c r="K48">
+        <v>-0.04401084956389339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.158286597065781</v>
+        <v>0.204376313111045</v>
       </c>
       <c r="C49">
-        <v>0.02257237769545583</v>
+        <v>0.006604337107205593</v>
       </c>
       <c r="D49">
-        <v>-0.07425256166682252</v>
+        <v>-0.1451265971250096</v>
       </c>
       <c r="E49">
-        <v>0.02743201039176898</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.1442134325285372</v>
+      </c>
+      <c r="F49">
+        <v>-0.01541682144361464</v>
+      </c>
+      <c r="G49">
+        <v>-0.1293332362800575</v>
+      </c>
+      <c r="H49">
+        <v>0.1507698888284527</v>
+      </c>
+      <c r="I49">
+        <v>-0.08946100284852009</v>
+      </c>
+      <c r="J49">
+        <v>0.02180871898641104</v>
+      </c>
+      <c r="K49">
+        <v>0.1928794158022733</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06114745827228426</v>
+        <v>0.0549264640980103</v>
       </c>
       <c r="C50">
-        <v>-0.0186454297994367</v>
+        <v>0.03088446635329336</v>
       </c>
       <c r="D50">
-        <v>-0.03448940778856752</v>
+        <v>-0.01451697506333936</v>
       </c>
       <c r="E50">
-        <v>0.006698122051045355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03774714559130236</v>
+      </c>
+      <c r="F50">
+        <v>0.0057729600362859</v>
+      </c>
+      <c r="G50">
+        <v>0.02261758486404368</v>
+      </c>
+      <c r="H50">
+        <v>-0.06243959014194105</v>
+      </c>
+      <c r="I50">
+        <v>0.03566158968726815</v>
+      </c>
+      <c r="J50">
+        <v>-0.042071583169902</v>
+      </c>
+      <c r="K50">
+        <v>-0.03915047343748471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03239947909763725</v>
+        <v>0.03946104697391151</v>
       </c>
       <c r="C51">
-        <v>0.006654562155033157</v>
+        <v>-0.004701569419062443</v>
       </c>
       <c r="D51">
-        <v>0.01420322774109153</v>
+        <v>0.01456352699092557</v>
       </c>
       <c r="E51">
-        <v>-0.001319477353905073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02071662624789069</v>
+      </c>
+      <c r="F51">
+        <v>0.01164640859045217</v>
+      </c>
+      <c r="G51">
+        <v>-0.02508038917773565</v>
+      </c>
+      <c r="H51">
+        <v>0.01125401289032487</v>
+      </c>
+      <c r="I51">
+        <v>-0.00658739169271642</v>
+      </c>
+      <c r="J51">
+        <v>0.0376959626597969</v>
+      </c>
+      <c r="K51">
+        <v>0.06724327345195405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1579355835391948</v>
+        <v>0.157673788588296</v>
       </c>
       <c r="C53">
-        <v>0.03761054836396152</v>
+        <v>0.0110812471800545</v>
       </c>
       <c r="D53">
-        <v>-0.0410581550247185</v>
+        <v>-0.05466211483737721</v>
       </c>
       <c r="E53">
-        <v>0.001865637878693381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01986598948308133</v>
+      </c>
+      <c r="F53">
+        <v>-0.01764470057338173</v>
+      </c>
+      <c r="G53">
+        <v>-0.008676127393935713</v>
+      </c>
+      <c r="H53">
+        <v>-0.2378885281830243</v>
+      </c>
+      <c r="I53">
+        <v>-0.05496417866579038</v>
+      </c>
+      <c r="J53">
+        <v>-0.05501161158912762</v>
+      </c>
+      <c r="K53">
+        <v>0.06338591984284811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06177181651721508</v>
+        <v>0.06174971091418149</v>
       </c>
       <c r="C54">
-        <v>-0.01647444194819086</v>
+        <v>0.01145532159552936</v>
       </c>
       <c r="D54">
-        <v>-0.01751489368441292</v>
+        <v>0.004256512923498756</v>
       </c>
       <c r="E54">
-        <v>0.03422284569156912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0684779984283868</v>
+      </c>
+      <c r="F54">
+        <v>0.04804833035725667</v>
+      </c>
+      <c r="G54">
+        <v>0.05447616049722993</v>
+      </c>
+      <c r="H54">
+        <v>-0.01071005501668765</v>
+      </c>
+      <c r="I54">
+        <v>0.1415108688983692</v>
+      </c>
+      <c r="J54">
+        <v>-0.01348734342938634</v>
+      </c>
+      <c r="K54">
+        <v>-0.08181685417042349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09549428073953779</v>
+        <v>0.09677494810828573</v>
       </c>
       <c r="C55">
-        <v>0.008399603862881778</v>
+        <v>0.02129225003910225</v>
       </c>
       <c r="D55">
-        <v>-0.04458180580596705</v>
+        <v>-0.03998676969997807</v>
       </c>
       <c r="E55">
-        <v>0.0245089749425731</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.007508973576199485</v>
+      </c>
+      <c r="F55">
+        <v>0.02164103308134621</v>
+      </c>
+      <c r="G55">
+        <v>0.03316660401715786</v>
+      </c>
+      <c r="H55">
+        <v>-0.1698118699248571</v>
+      </c>
+      <c r="I55">
+        <v>-0.005452274691081002</v>
+      </c>
+      <c r="J55">
+        <v>-0.0434955123473148</v>
+      </c>
+      <c r="K55">
+        <v>0.0424406944959908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1524181941371051</v>
+        <v>0.1525759093961983</v>
       </c>
       <c r="C56">
-        <v>0.03607162086633849</v>
+        <v>0.02854186759964547</v>
       </c>
       <c r="D56">
-        <v>-0.06102369192878296</v>
+        <v>-0.06370977229762864</v>
       </c>
       <c r="E56">
-        <v>0.04146214320555577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.003876648952319144</v>
+      </c>
+      <c r="F56">
+        <v>0.002518358450963801</v>
+      </c>
+      <c r="G56">
+        <v>0.01833964816244731</v>
+      </c>
+      <c r="H56">
+        <v>-0.2286067946440219</v>
+      </c>
+      <c r="I56">
+        <v>-0.08119904769769384</v>
+      </c>
+      <c r="J56">
+        <v>-0.01777539661763019</v>
+      </c>
+      <c r="K56">
+        <v>0.02014464561384203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1215068139865396</v>
+        <v>0.08310171017617408</v>
       </c>
       <c r="C58">
-        <v>-0.08737054479318901</v>
+        <v>0.05400096983520851</v>
       </c>
       <c r="D58">
-        <v>0.09066484820646252</v>
+        <v>0.1661266749973205</v>
       </c>
       <c r="E58">
-        <v>0.1239418171197725</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02832052292867937</v>
+      </c>
+      <c r="F58">
+        <v>0.0702333052065536</v>
+      </c>
+      <c r="G58">
+        <v>-0.1131340389889493</v>
+      </c>
+      <c r="H58">
+        <v>0.2497272146291239</v>
+      </c>
+      <c r="I58">
+        <v>0.4471334727208517</v>
+      </c>
+      <c r="J58">
+        <v>0.03259439806844533</v>
+      </c>
+      <c r="K58">
+        <v>0.2180871251961451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1322837213184635</v>
+        <v>0.162528677193861</v>
       </c>
       <c r="C59">
-        <v>0.4214370688755072</v>
+        <v>-0.3648277293482903</v>
       </c>
       <c r="D59">
-        <v>0.1350609727081779</v>
+        <v>0.04016867595694679</v>
       </c>
       <c r="E59">
-        <v>0.0793537381536096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02154829850284034</v>
+      </c>
+      <c r="F59">
+        <v>0.01631916045602717</v>
+      </c>
+      <c r="G59">
+        <v>0.008226926713847161</v>
+      </c>
+      <c r="H59">
+        <v>-0.05173966233974894</v>
+      </c>
+      <c r="I59">
+        <v>-0.0331575078639717</v>
+      </c>
+      <c r="J59">
+        <v>0.07113469634520128</v>
+      </c>
+      <c r="K59">
+        <v>0.01626200706286508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2219875918793897</v>
+        <v>0.2477067182176933</v>
       </c>
       <c r="C60">
-        <v>0.03793683459972839</v>
+        <v>0.02709109510865145</v>
       </c>
       <c r="D60">
-        <v>-0.0580273321412982</v>
+        <v>-0.1037823429205174</v>
       </c>
       <c r="E60">
-        <v>0.05818015388963617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1062293139269866</v>
+      </c>
+      <c r="F60">
+        <v>0.008791164218047652</v>
+      </c>
+      <c r="G60">
+        <v>-0.02590729083491768</v>
+      </c>
+      <c r="H60">
+        <v>0.1032368228764945</v>
+      </c>
+      <c r="I60">
+        <v>-0.1465186971480043</v>
+      </c>
+      <c r="J60">
+        <v>-0.1074840917601786</v>
+      </c>
+      <c r="K60">
+        <v>0.1290290358621241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0812896909748899</v>
+        <v>0.0882523353858765</v>
       </c>
       <c r="C61">
-        <v>-0.01410442542281307</v>
+        <v>0.03366737789127754</v>
       </c>
       <c r="D61">
-        <v>-0.03760561348706483</v>
+        <v>-0.03124525033240084</v>
       </c>
       <c r="E61">
-        <v>0.006221396295902185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01755778600318583</v>
+      </c>
+      <c r="F61">
+        <v>0.02750567347190115</v>
+      </c>
+      <c r="G61">
+        <v>0.04969232052056465</v>
+      </c>
+      <c r="H61">
+        <v>-0.04721416485328379</v>
+      </c>
+      <c r="I61">
+        <v>0.05070198849984967</v>
+      </c>
+      <c r="J61">
+        <v>0.07264709989225948</v>
+      </c>
+      <c r="K61">
+        <v>0.008610266157853401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1506632741468898</v>
+        <v>0.1477112830957658</v>
       </c>
       <c r="C62">
-        <v>0.02845814660963268</v>
+        <v>0.03164333054386794</v>
       </c>
       <c r="D62">
-        <v>-0.02325776832345779</v>
+        <v>-0.03969209260156269</v>
       </c>
       <c r="E62">
-        <v>-0.005062724098054292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.02378569421304566</v>
+      </c>
+      <c r="F62">
+        <v>-0.04484662021252018</v>
+      </c>
+      <c r="G62">
+        <v>0.04114217208683767</v>
+      </c>
+      <c r="H62">
+        <v>-0.2199843071459979</v>
+      </c>
+      <c r="I62">
+        <v>-0.08699205430150123</v>
+      </c>
+      <c r="J62">
+        <v>-0.08100637508860671</v>
+      </c>
+      <c r="K62">
+        <v>-0.002471277084631207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0606938717077431</v>
+        <v>0.05261698458872375</v>
       </c>
       <c r="C63">
-        <v>-0.02528097458495311</v>
+        <v>0.02273629925279071</v>
       </c>
       <c r="D63">
-        <v>-0.02568642981469662</v>
+        <v>-0.008551866637996917</v>
       </c>
       <c r="E63">
-        <v>0.01440384780352378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03082950716169254</v>
+      </c>
+      <c r="F63">
+        <v>0.01546869917518331</v>
+      </c>
+      <c r="G63">
+        <v>0.05567336571508593</v>
+      </c>
+      <c r="H63">
+        <v>-0.01605596514164293</v>
+      </c>
+      <c r="I63">
+        <v>0.04410242436981296</v>
+      </c>
+      <c r="J63">
+        <v>-0.03065976154192131</v>
+      </c>
+      <c r="K63">
+        <v>-0.04084270915282916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1038565686968016</v>
+        <v>0.1087459109223523</v>
       </c>
       <c r="C64">
-        <v>-0.005249656946812222</v>
+        <v>0.02031322127799841</v>
       </c>
       <c r="D64">
-        <v>-0.04299553924841149</v>
+        <v>-0.03610314822339909</v>
       </c>
       <c r="E64">
-        <v>0.03964198603101998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03295056657737784</v>
+      </c>
+      <c r="F64">
+        <v>0.06370500191976348</v>
+      </c>
+      <c r="G64">
+        <v>0.0530876861946025</v>
+      </c>
+      <c r="H64">
+        <v>0.01597458476287432</v>
+      </c>
+      <c r="I64">
+        <v>0.05460928013574709</v>
+      </c>
+      <c r="J64">
+        <v>0.03485418505633942</v>
+      </c>
+      <c r="K64">
+        <v>-0.01326342616101822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1241116393992919</v>
+        <v>0.1332873228722198</v>
       </c>
       <c r="C65">
-        <v>-0.0162506861315246</v>
+        <v>0.005895442034468905</v>
       </c>
       <c r="D65">
-        <v>-0.04317831599944495</v>
+        <v>-0.04632753616653718</v>
       </c>
       <c r="E65">
-        <v>0.049851315488929</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01630093261321699</v>
+      </c>
+      <c r="F65">
+        <v>0.01832176557204439</v>
+      </c>
+      <c r="G65">
+        <v>0.0821952186817876</v>
+      </c>
+      <c r="H65">
+        <v>0.2417223951763423</v>
+      </c>
+      <c r="I65">
+        <v>0.03292467062677659</v>
+      </c>
+      <c r="J65">
+        <v>-0.6503182477096372</v>
+      </c>
+      <c r="K65">
+        <v>-0.0253488257473954</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1590921127939289</v>
+        <v>0.1484962253802888</v>
       </c>
       <c r="C66">
-        <v>-0.05972049257257896</v>
+        <v>0.09190582638432719</v>
       </c>
       <c r="D66">
-        <v>-0.07290971090714297</v>
+        <v>-0.04878176886385044</v>
       </c>
       <c r="E66">
-        <v>0.0140343377292901</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01763297837605219</v>
+      </c>
+      <c r="F66">
+        <v>0.0164950425933076</v>
+      </c>
+      <c r="G66">
+        <v>0.08997744922807276</v>
+      </c>
+      <c r="H66">
+        <v>-0.02874542952319752</v>
+      </c>
+      <c r="I66">
+        <v>0.1224683104152764</v>
+      </c>
+      <c r="J66">
+        <v>0.2206905395629621</v>
+      </c>
+      <c r="K66">
+        <v>-0.01344360516681046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09833136512873762</v>
+        <v>0.09988407908170319</v>
       </c>
       <c r="C67">
-        <v>-0.003332670142421531</v>
+        <v>0.03611683577191759</v>
       </c>
       <c r="D67">
-        <v>0.01519872820469996</v>
+        <v>0.007692327042762284</v>
       </c>
       <c r="E67">
-        <v>0.003481323675469998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01780704296887642</v>
+      </c>
+      <c r="F67">
+        <v>0.01436476859769941</v>
+      </c>
+      <c r="G67">
+        <v>-0.01431311205372591</v>
+      </c>
+      <c r="H67">
+        <v>-0.01978350105284995</v>
+      </c>
+      <c r="I67">
+        <v>-0.0422531784309789</v>
+      </c>
+      <c r="J67">
+        <v>0.05643732880670698</v>
+      </c>
+      <c r="K67">
+        <v>-0.02949852825498787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04819322189934662</v>
+        <v>0.07495027334163415</v>
       </c>
       <c r="C68">
-        <v>0.2442081868964063</v>
+        <v>-0.2808367364209473</v>
       </c>
       <c r="D68">
-        <v>0.08263818618939227</v>
+        <v>0.03607251518865099</v>
       </c>
       <c r="E68">
-        <v>0.04253086094877971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02846432220050241</v>
+      </c>
+      <c r="F68">
+        <v>0.03056070533044996</v>
+      </c>
+      <c r="G68">
+        <v>-0.003796006135253849</v>
+      </c>
+      <c r="H68">
+        <v>-0.01631418128673388</v>
+      </c>
+      <c r="I68">
+        <v>0.02881058646432581</v>
+      </c>
+      <c r="J68">
+        <v>-0.04108613674297429</v>
+      </c>
+      <c r="K68">
+        <v>-0.005090968425969123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06829993022636538</v>
+        <v>0.05714779376547691</v>
       </c>
       <c r="C69">
-        <v>-0.01156871491649115</v>
+        <v>0.01855088498328368</v>
       </c>
       <c r="D69">
-        <v>-0.001128288249450921</v>
+        <v>0.01855129599896636</v>
       </c>
       <c r="E69">
-        <v>0.01172673600619543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01496721573876715</v>
+      </c>
+      <c r="F69">
+        <v>-0.004599128580167125</v>
+      </c>
+      <c r="G69">
+        <v>0.000114377462771684</v>
+      </c>
+      <c r="H69">
+        <v>-0.03283592350811362</v>
+      </c>
+      <c r="I69">
+        <v>0.0156621480507126</v>
+      </c>
+      <c r="J69">
+        <v>-0.0005195201599390914</v>
+      </c>
+      <c r="K69">
+        <v>0.01282535235529879</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01420120972704507</v>
+        <v>0.03951193969022069</v>
       </c>
       <c r="C70">
-        <v>0.009005834362598015</v>
+        <v>0.0005188527996232044</v>
       </c>
       <c r="D70">
-        <v>0.007341100972908759</v>
+        <v>0.000746589476856479</v>
       </c>
       <c r="E70">
-        <v>-0.01492038500837659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.0421640342731796</v>
+      </c>
+      <c r="F70">
+        <v>-0.0247466562235162</v>
+      </c>
+      <c r="G70">
+        <v>-0.01049679795561609</v>
+      </c>
+      <c r="H70">
+        <v>0.03658289474226372</v>
+      </c>
+      <c r="I70">
+        <v>-0.008285296393315747</v>
+      </c>
+      <c r="J70">
+        <v>0.03400520950083744</v>
+      </c>
+      <c r="K70">
+        <v>-0.1459517787149888</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04419380584811027</v>
+        <v>0.08177596624045523</v>
       </c>
       <c r="C71">
-        <v>0.2722651733850857</v>
+        <v>-0.3003423690427217</v>
       </c>
       <c r="D71">
-        <v>0.09309912697402195</v>
+        <v>0.02783671413136154</v>
       </c>
       <c r="E71">
-        <v>0.08840793901635216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.01777005197704907</v>
+      </c>
+      <c r="F71">
+        <v>0.05237907496097631</v>
+      </c>
+      <c r="G71">
+        <v>0.003116006905395476</v>
+      </c>
+      <c r="H71">
+        <v>-0.01870320603249422</v>
+      </c>
+      <c r="I71">
+        <v>0.0281360715500113</v>
+      </c>
+      <c r="J71">
+        <v>-0.01261532214533066</v>
+      </c>
+      <c r="K71">
+        <v>-0.002389548507965321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1447920629084126</v>
+        <v>0.1357766911963698</v>
       </c>
       <c r="C72">
-        <v>0.04162012442080745</v>
+        <v>-0.002967375452610837</v>
       </c>
       <c r="D72">
-        <v>-0.009958375485486955</v>
+        <v>0.007037288898305127</v>
       </c>
       <c r="E72">
-        <v>-0.2308299253455882</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.03660672255032403</v>
+      </c>
+      <c r="F72">
+        <v>-0.1734971161804105</v>
+      </c>
+      <c r="G72">
+        <v>0.1270039122095267</v>
+      </c>
+      <c r="H72">
+        <v>0.001458360803842484</v>
+      </c>
+      <c r="I72">
+        <v>-0.02198447165713311</v>
+      </c>
+      <c r="J72">
+        <v>-0.1149619234167083</v>
+      </c>
+      <c r="K72">
+        <v>0.1229844359251972</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2653726613077813</v>
+        <v>0.2584824241293016</v>
       </c>
       <c r="C73">
-        <v>-0.003468624661948683</v>
+        <v>0.08232945542712246</v>
       </c>
       <c r="D73">
-        <v>-0.106949761566601</v>
+        <v>-0.1579061950633343</v>
       </c>
       <c r="E73">
-        <v>0.06556459144861804</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2874879122467247</v>
+      </c>
+      <c r="F73">
+        <v>-0.03432225826741743</v>
+      </c>
+      <c r="G73">
+        <v>-0.2261178325100059</v>
+      </c>
+      <c r="H73">
+        <v>0.2447711333444536</v>
+      </c>
+      <c r="I73">
+        <v>-0.141281172466398</v>
+      </c>
+      <c r="J73">
+        <v>0.1824171516771399</v>
+      </c>
+      <c r="K73">
+        <v>0.509255701736236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09020860544279419</v>
+        <v>0.09413149271126985</v>
       </c>
       <c r="C74">
-        <v>0.02217961509956574</v>
+        <v>0.02464634818944346</v>
       </c>
       <c r="D74">
-        <v>-0.04495453144674493</v>
+        <v>-0.04867142553295014</v>
       </c>
       <c r="E74">
-        <v>0.001669658950793984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.003699369589974026</v>
+      </c>
+      <c r="F74">
+        <v>-0.007622882831396114</v>
+      </c>
+      <c r="G74">
+        <v>-0.02092194874098189</v>
+      </c>
+      <c r="H74">
+        <v>-0.1425439310822779</v>
+      </c>
+      <c r="I74">
+        <v>0.01057956539146108</v>
+      </c>
+      <c r="J74">
+        <v>-0.01356019648941965</v>
+      </c>
+      <c r="K74">
+        <v>0.0652727264296421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.118106435985593</v>
+        <v>0.1047000775747661</v>
       </c>
       <c r="C75">
-        <v>0.00151140741230296</v>
+        <v>0.02636454522837997</v>
       </c>
       <c r="D75">
-        <v>-0.001046483971085913</v>
+        <v>0.01666602461374243</v>
       </c>
       <c r="E75">
-        <v>0.0170069837460379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.01086058299872044</v>
+      </c>
+      <c r="F75">
+        <v>-0.01397037991527891</v>
+      </c>
+      <c r="G75">
+        <v>-0.005760089404242545</v>
+      </c>
+      <c r="H75">
+        <v>-0.1199145691790096</v>
+      </c>
+      <c r="I75">
+        <v>-0.04599000117756417</v>
+      </c>
+      <c r="J75">
+        <v>-0.0323332980399379</v>
+      </c>
+      <c r="K75">
+        <v>-0.004868180701670569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1426846032823059</v>
+        <v>0.1345264035887652</v>
       </c>
       <c r="C76">
-        <v>-0.0003156875699756286</v>
+        <v>0.04756415862746807</v>
       </c>
       <c r="D76">
-        <v>-0.05271862445478705</v>
+        <v>-0.05396229038202251</v>
       </c>
       <c r="E76">
-        <v>0.03442917161519783</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.005391915126448271</v>
+      </c>
+      <c r="F76">
+        <v>0.01967237753264247</v>
+      </c>
+      <c r="G76">
+        <v>0.03127843072982727</v>
+      </c>
+      <c r="H76">
+        <v>-0.2798757980880909</v>
+      </c>
+      <c r="I76">
+        <v>-0.04105080415224371</v>
+      </c>
+      <c r="J76">
+        <v>-0.04369989412875124</v>
+      </c>
+      <c r="K76">
+        <v>0.03385460340682967</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1339582310778955</v>
+        <v>0.09711499612062149</v>
       </c>
       <c r="C77">
-        <v>-0.08970423244158844</v>
+        <v>0.05260624458597126</v>
       </c>
       <c r="D77">
-        <v>0.0689507471664232</v>
+        <v>0.1750088296805923</v>
       </c>
       <c r="E77">
-        <v>0.08404645614189178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.06077906867528796</v>
+      </c>
+      <c r="F77">
+        <v>0.1287306380427929</v>
+      </c>
+      <c r="G77">
+        <v>0.6984141120003842</v>
+      </c>
+      <c r="H77">
+        <v>0.2657173886736878</v>
+      </c>
+      <c r="I77">
+        <v>-0.4435166570759268</v>
+      </c>
+      <c r="J77">
+        <v>0.2048851737401119</v>
+      </c>
+      <c r="K77">
+        <v>-0.0006177399225730869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1190263792457253</v>
+        <v>0.1620582043834375</v>
       </c>
       <c r="C78">
-        <v>-0.05635787435563578</v>
+        <v>0.06697530456101271</v>
       </c>
       <c r="D78">
-        <v>-0.05800774549106298</v>
+        <v>-0.03085825520505726</v>
       </c>
       <c r="E78">
-        <v>0.003433304831838925</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.1338682003760698</v>
+      </c>
+      <c r="F78">
+        <v>0.1044919336039556</v>
+      </c>
+      <c r="G78">
+        <v>-0.01380481573157565</v>
+      </c>
+      <c r="H78">
+        <v>0.1385341662809413</v>
+      </c>
+      <c r="I78">
+        <v>0.03138304211964568</v>
+      </c>
+      <c r="J78">
+        <v>-0.07575748360453871</v>
+      </c>
+      <c r="K78">
+        <v>-0.02271699859101757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1516314107804254</v>
+        <v>0.145661622776666</v>
       </c>
       <c r="C79">
-        <v>-0.006488232421375233</v>
+        <v>0.04065592720026115</v>
       </c>
       <c r="D79">
-        <v>-0.05881737982239389</v>
+        <v>-0.04152902502405426</v>
       </c>
       <c r="E79">
-        <v>0.0008218624879778814</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.0005134408399970176</v>
+      </c>
+      <c r="F79">
+        <v>-0.01189385440161515</v>
+      </c>
+      <c r="G79">
+        <v>0.05306406871079116</v>
+      </c>
+      <c r="H79">
+        <v>-0.1874849775525539</v>
+      </c>
+      <c r="I79">
+        <v>-0.0577770715500909</v>
+      </c>
+      <c r="J79">
+        <v>-0.06432321048032909</v>
+      </c>
+      <c r="K79">
+        <v>0.01584988463975103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.04242335912480585</v>
+        <v>0.04269064079406424</v>
       </c>
       <c r="C80">
-        <v>-0.01761503806113198</v>
+        <v>0.01239399512662072</v>
       </c>
       <c r="D80">
-        <v>-0.01148683567294621</v>
+        <v>-0.02642785090546064</v>
       </c>
       <c r="E80">
-        <v>0.00213325653611523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04460992047262927</v>
+      </c>
+      <c r="F80">
+        <v>-0.004706748061184473</v>
+      </c>
+      <c r="G80">
+        <v>0.01775928801200677</v>
+      </c>
+      <c r="H80">
+        <v>0.02613140871374242</v>
+      </c>
+      <c r="I80">
+        <v>0.1174593801600942</v>
+      </c>
+      <c r="J80">
+        <v>-0.01413834405256589</v>
+      </c>
+      <c r="K80">
+        <v>0.006729638774200352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1339805468192627</v>
+        <v>0.1288751873942963</v>
       </c>
       <c r="C81">
-        <v>0.008738508025426339</v>
+        <v>0.01948581161684412</v>
       </c>
       <c r="D81">
-        <v>-0.04135155044400515</v>
+        <v>-0.03190311275136854</v>
       </c>
       <c r="E81">
-        <v>0.02594456484938262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.006262631133407981</v>
+      </c>
+      <c r="F81">
+        <v>0.01226990711249058</v>
+      </c>
+      <c r="G81">
+        <v>0.01700933315789582</v>
+      </c>
+      <c r="H81">
+        <v>-0.1539128451176755</v>
+      </c>
+      <c r="I81">
+        <v>-0.01162700847207838</v>
+      </c>
+      <c r="J81">
+        <v>0.01450181703896609</v>
+      </c>
+      <c r="K81">
+        <v>0.00387090387358836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.124728711710398</v>
+        <v>0.1225594745007326</v>
       </c>
       <c r="C82">
-        <v>-0.003839214434449619</v>
+        <v>0.02816902502602821</v>
       </c>
       <c r="D82">
-        <v>-0.0357577251003055</v>
+        <v>-0.03650025203906213</v>
       </c>
       <c r="E82">
-        <v>0.04172051339153146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.02417759247068346</v>
+      </c>
+      <c r="F82">
+        <v>0.008088716736834518</v>
+      </c>
+      <c r="G82">
+        <v>-0.008814949929782226</v>
+      </c>
+      <c r="H82">
+        <v>-0.2783886203448766</v>
+      </c>
+      <c r="I82">
+        <v>-0.05574394607326699</v>
+      </c>
+      <c r="J82">
+        <v>0.005766771998946354</v>
+      </c>
+      <c r="K82">
+        <v>-0.02460607224105758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0501756021760418</v>
+        <v>0.07407304110421933</v>
       </c>
       <c r="C83">
-        <v>-0.0148398907729628</v>
+        <v>0.02790378891347218</v>
       </c>
       <c r="D83">
-        <v>0.04406300104319229</v>
+        <v>0.02389376539444601</v>
       </c>
       <c r="E83">
-        <v>0.01382219848337467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.06578441223591286</v>
+      </c>
+      <c r="F83">
+        <v>0.01327586708918294</v>
+      </c>
+      <c r="G83">
+        <v>-0.05679813224293378</v>
+      </c>
+      <c r="H83">
+        <v>0.06526571690432589</v>
+      </c>
+      <c r="I83">
+        <v>0.06627925905698269</v>
+      </c>
+      <c r="J83">
+        <v>0.0397455162373351</v>
+      </c>
+      <c r="K83">
+        <v>-0.05615448906339218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04502050100625993</v>
+        <v>0.03513984769895256</v>
       </c>
       <c r="C84">
-        <v>-0.01654483497501372</v>
+        <v>0.04100260261969817</v>
       </c>
       <c r="D84">
-        <v>-0.03370796162889818</v>
+        <v>-0.008347994878691213</v>
       </c>
       <c r="E84">
-        <v>-0.05756318901683161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0506011944401424</v>
+      </c>
+      <c r="F84">
+        <v>-0.03239313489141315</v>
+      </c>
+      <c r="G84">
+        <v>-0.02847383114499004</v>
+      </c>
+      <c r="H84">
+        <v>-0.0125538762705997</v>
+      </c>
+      <c r="I84">
+        <v>0.1218750404909625</v>
+      </c>
+      <c r="J84">
+        <v>0.009935955411793469</v>
+      </c>
+      <c r="K84">
+        <v>-0.08227130222472567</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1182765244814811</v>
+        <v>0.123754382062054</v>
       </c>
       <c r="C85">
-        <v>-0.02537389071675666</v>
+        <v>0.03680250268041798</v>
       </c>
       <c r="D85">
-        <v>-0.03076940891603461</v>
+        <v>-0.01931102435151581</v>
       </c>
       <c r="E85">
-        <v>0.06801143753178408</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.002827841353695147</v>
+      </c>
+      <c r="F85">
+        <v>0.03566532474271935</v>
+      </c>
+      <c r="G85">
+        <v>0.01940510978833302</v>
+      </c>
+      <c r="H85">
+        <v>-0.1931161987935434</v>
+      </c>
+      <c r="I85">
+        <v>-0.03081590012324595</v>
+      </c>
+      <c r="J85">
+        <v>-0.07003685437562</v>
+      </c>
+      <c r="K85">
+        <v>0.02555458747124803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07104188400531039</v>
+        <v>0.06211885057665445</v>
       </c>
       <c r="C86">
-        <v>-0.05532375522504198</v>
+        <v>0.0352250676588446</v>
       </c>
       <c r="D86">
-        <v>-0.03488007987172811</v>
+        <v>0.008247262058611298</v>
       </c>
       <c r="E86">
-        <v>0.01677502465525334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02503136616975087</v>
+      </c>
+      <c r="F86">
+        <v>0.03600697277422493</v>
+      </c>
+      <c r="G86">
+        <v>-0.01163383847392157</v>
+      </c>
+      <c r="H86">
+        <v>0.04745174310707154</v>
+      </c>
+      <c r="I86">
+        <v>-0.05970583253277718</v>
+      </c>
+      <c r="J86">
+        <v>-0.02735737822679801</v>
+      </c>
+      <c r="K86">
+        <v>-0.04412763636974507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1348932310318584</v>
+        <v>0.1316976377265219</v>
       </c>
       <c r="C87">
-        <v>-0.05005404764415649</v>
+        <v>0.06764554307246716</v>
       </c>
       <c r="D87">
-        <v>-0.07843028029380732</v>
+        <v>-0.01812900269237878</v>
       </c>
       <c r="E87">
-        <v>0.03439640881305531</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07748850020031911</v>
+      </c>
+      <c r="F87">
+        <v>0.05717802991381091</v>
+      </c>
+      <c r="G87">
+        <v>0.1587954056604012</v>
+      </c>
+      <c r="H87">
+        <v>0.07671785487409878</v>
+      </c>
+      <c r="I87">
+        <v>-0.02101581083079759</v>
+      </c>
+      <c r="J87">
+        <v>0.02634714317606882</v>
+      </c>
+      <c r="K87">
+        <v>0.02108364193350775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05987945138258613</v>
+        <v>0.06481977760073376</v>
       </c>
       <c r="C88">
-        <v>-0.02228545113663454</v>
+        <v>0.03878546734108761</v>
       </c>
       <c r="D88">
-        <v>-0.01803530376830446</v>
+        <v>-0.02209685658913541</v>
       </c>
       <c r="E88">
-        <v>0.008784222852909489</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008711654283902644</v>
+      </c>
+      <c r="F88">
+        <v>0.01406750138868957</v>
+      </c>
+      <c r="G88">
+        <v>0.02460490145247925</v>
+      </c>
+      <c r="H88">
+        <v>-0.02314184020775776</v>
+      </c>
+      <c r="I88">
+        <v>0.04609153447750169</v>
+      </c>
+      <c r="J88">
+        <v>0.02082905656888893</v>
+      </c>
+      <c r="K88">
+        <v>-0.02014486208384014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07498637979255407</v>
+        <v>0.1304327272593134</v>
       </c>
       <c r="C89">
-        <v>0.3075538751746444</v>
+        <v>-0.3758479947759422</v>
       </c>
       <c r="D89">
-        <v>0.09701670460247881</v>
+        <v>0.03070569845057102</v>
       </c>
       <c r="E89">
-        <v>0.1119310398762203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.006225706888172145</v>
+      </c>
+      <c r="F89">
+        <v>0.09673583559437889</v>
+      </c>
+      <c r="G89">
+        <v>-0.01646098967218997</v>
+      </c>
+      <c r="H89">
+        <v>-0.003127822173044227</v>
+      </c>
+      <c r="I89">
+        <v>0.07731579468036875</v>
+      </c>
+      <c r="J89">
+        <v>0.06917028648059706</v>
+      </c>
+      <c r="K89">
+        <v>0.01259127601951418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06758391479966799</v>
+        <v>0.09509080931606802</v>
       </c>
       <c r="C90">
-        <v>0.2630364543698297</v>
+        <v>-0.280799983835777</v>
       </c>
       <c r="D90">
-        <v>0.1086517219546416</v>
+        <v>0.04668270141564914</v>
       </c>
       <c r="E90">
-        <v>0.06340588718152797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001882803671969169</v>
+      </c>
+      <c r="F90">
+        <v>0.04186697296181065</v>
+      </c>
+      <c r="G90">
+        <v>0.01826088462040928</v>
+      </c>
+      <c r="H90">
+        <v>0.03637968932087159</v>
+      </c>
+      <c r="I90">
+        <v>0.07360160569665332</v>
+      </c>
+      <c r="J90">
+        <v>0.0475499076597392</v>
+      </c>
+      <c r="K90">
+        <v>0.03167673901628533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1051698501221789</v>
+        <v>0.09278822399352844</v>
       </c>
       <c r="C91">
-        <v>0.004672328121256408</v>
+        <v>0.02860693025632323</v>
       </c>
       <c r="D91">
-        <v>-0.03494276932674733</v>
+        <v>-0.01820851667146264</v>
       </c>
       <c r="E91">
-        <v>0.01643632780844565</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.002372586248984321</v>
+      </c>
+      <c r="F91">
+        <v>-0.004758346427167337</v>
+      </c>
+      <c r="G91">
+        <v>-0.01369403725376581</v>
+      </c>
+      <c r="H91">
+        <v>-0.08265136848658849</v>
+      </c>
+      <c r="I91">
+        <v>-0.03738219959921418</v>
+      </c>
+      <c r="J91">
+        <v>-0.006306430023413777</v>
+      </c>
+      <c r="K91">
+        <v>0.01655884875898533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.05397570191497765</v>
+        <v>0.09305565200670309</v>
       </c>
       <c r="C92">
-        <v>0.3194750386033478</v>
+        <v>-0.3356181745774521</v>
       </c>
       <c r="D92">
-        <v>0.08799877743484605</v>
+        <v>0.02210306922160088</v>
       </c>
       <c r="E92">
-        <v>0.08987703552566691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02195223046283417</v>
+      </c>
+      <c r="F92">
+        <v>0.0569013129149806</v>
+      </c>
+      <c r="G92">
+        <v>0.003121539961628976</v>
+      </c>
+      <c r="H92">
+        <v>-0.01395401000472734</v>
+      </c>
+      <c r="I92">
+        <v>0.02654054328617758</v>
+      </c>
+      <c r="J92">
+        <v>0.02340958918789986</v>
+      </c>
+      <c r="K92">
+        <v>0.0007812107391615083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.05006982272287187</v>
+        <v>0.09487630406313818</v>
       </c>
       <c r="C93">
-        <v>0.2944334180140869</v>
+        <v>-0.3201186862627375</v>
       </c>
       <c r="D93">
-        <v>0.08698639861588965</v>
+        <v>0.01412337464049084</v>
       </c>
       <c r="E93">
-        <v>0.05949911305816816</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.00496748324440736</v>
+      </c>
+      <c r="F93">
+        <v>0.02630905890463367</v>
+      </c>
+      <c r="G93">
+        <v>0.001065359430502495</v>
+      </c>
+      <c r="H93">
+        <v>0.00971526244243477</v>
+      </c>
+      <c r="I93">
+        <v>0.009041846709653004</v>
+      </c>
+      <c r="J93">
+        <v>-0.005349959814834934</v>
+      </c>
+      <c r="K93">
+        <v>-0.03196731055939994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1255040121242988</v>
+        <v>0.1224507570098397</v>
       </c>
       <c r="C94">
-        <v>-0.04185150507347519</v>
+        <v>0.04994058725324498</v>
       </c>
       <c r="D94">
-        <v>-0.04415324287015974</v>
+        <v>-0.01499182617431849</v>
       </c>
       <c r="E94">
-        <v>0.03201289918168376</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.006800513464036358</v>
+      </c>
+      <c r="F94">
+        <v>0.02036893138816041</v>
+      </c>
+      <c r="G94">
+        <v>-0.05099088460649546</v>
+      </c>
+      <c r="H94">
+        <v>-0.1174498915644066</v>
+      </c>
+      <c r="I94">
+        <v>-0.03165357909665902</v>
+      </c>
+      <c r="J94">
+        <v>-0.02308187619711324</v>
+      </c>
+      <c r="K94">
+        <v>0.01956850905743304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1290442916094329</v>
+        <v>0.1403843401375451</v>
       </c>
       <c r="C95">
-        <v>-0.06446805311116163</v>
+        <v>0.06557415722614174</v>
       </c>
       <c r="D95">
-        <v>-0.08807078350154511</v>
+        <v>-0.03504428347174937</v>
       </c>
       <c r="E95">
-        <v>0.06866175358678117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03095101638772243</v>
+      </c>
+      <c r="F95">
+        <v>0.05902538304922601</v>
+      </c>
+      <c r="G95">
+        <v>0.03059206505964414</v>
+      </c>
+      <c r="H95">
+        <v>0.1483595823154404</v>
+      </c>
+      <c r="I95">
+        <v>0.05202468574243153</v>
+      </c>
+      <c r="J95">
+        <v>-0.005036540587775431</v>
+      </c>
+      <c r="K95">
+        <v>-0.06255012873177201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2415291315017989</v>
+        <v>0.1809572101796617</v>
       </c>
       <c r="C97">
-        <v>0.1533036482775408</v>
+        <v>-0.04985330083235791</v>
       </c>
       <c r="D97">
-        <v>0.01099895080487924</v>
+        <v>0.1292874016944731</v>
       </c>
       <c r="E97">
-        <v>-0.8899219132485926</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.2844813950227421</v>
+      </c>
+      <c r="F97">
+        <v>-0.8774517788052624</v>
+      </c>
+      <c r="G97">
+        <v>0.08791216487058806</v>
+      </c>
+      <c r="H97">
+        <v>0.06030694134980311</v>
+      </c>
+      <c r="I97">
+        <v>0.0792467283979796</v>
+      </c>
+      <c r="J97">
+        <v>0.04103961729140283</v>
+      </c>
+      <c r="K97">
+        <v>0.04281273441723988</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2795726941204795</v>
+        <v>0.2870039182417083</v>
       </c>
       <c r="C98">
-        <v>-0.006044785594338856</v>
+        <v>0.069152598937787</v>
       </c>
       <c r="D98">
-        <v>-0.02739570119632368</v>
+        <v>-0.08843688392249878</v>
       </c>
       <c r="E98">
-        <v>0.03563833117024736</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.273698137774853</v>
+      </c>
+      <c r="F98">
+        <v>-0.1299240925887383</v>
+      </c>
+      <c r="G98">
+        <v>-0.2927291256496454</v>
+      </c>
+      <c r="H98">
+        <v>0.2151014408183946</v>
+      </c>
+      <c r="I98">
+        <v>-0.1890636002446719</v>
+      </c>
+      <c r="J98">
+        <v>0.1688752875414311</v>
+      </c>
+      <c r="K98">
+        <v>-0.6618984677784652</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2323074864718905</v>
+        <v>0.158742196262408</v>
       </c>
       <c r="C99">
-        <v>-0.3241998544774415</v>
+        <v>0.124169087530119</v>
       </c>
       <c r="D99">
-        <v>0.8800365687787651</v>
+        <v>0.8505999795793308</v>
       </c>
       <c r="E99">
-        <v>0.003332641184094108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3808048963472667</v>
+      </c>
+      <c r="F99">
+        <v>0.03283803630205169</v>
+      </c>
+      <c r="G99">
+        <v>-0.04678158067522873</v>
+      </c>
+      <c r="H99">
+        <v>-0.1133320554857351</v>
+      </c>
+      <c r="I99">
+        <v>0.04351944497304287</v>
+      </c>
+      <c r="J99">
+        <v>-0.08792984318471138</v>
+      </c>
+      <c r="K99">
+        <v>0.01597585030123779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05584617393229477</v>
+        <v>0.05424390349973216</v>
       </c>
       <c r="C101">
-        <v>0.009133785423849364</v>
+        <v>0.007226668114620781</v>
       </c>
       <c r="D101">
-        <v>-0.03320503876768716</v>
+        <v>-0.02659411868339837</v>
       </c>
       <c r="E101">
-        <v>0.02246707265043629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03381316104480386</v>
+      </c>
+      <c r="F101">
+        <v>0.03600621318809661</v>
+      </c>
+      <c r="G101">
+        <v>0.03089180203279316</v>
+      </c>
+      <c r="H101">
+        <v>-0.06400834583114252</v>
+      </c>
+      <c r="I101">
+        <v>0.05028908902115549</v>
+      </c>
+      <c r="J101">
+        <v>-0.01162500872836984</v>
+      </c>
+      <c r="K101">
+        <v>-0.04267415252087968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
